--- a/CertiBase/CertiBase/Banco de Dados.xlsx
+++ b/CertiBase/CertiBase/Banco de Dados.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\OneDrive\Área de Trabalho\UFSC\Laboratório\Software\CertiBase\CertiBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60FDD7-EB09-4279-9A73-8D82B1CCFAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF7F77-4C05-4745-9BFC-C689C631295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LoPF+SSMZKQcsl4qkoeRnrCg2tC0B0K0BcxlImqLdQGO3sU6mjPOv3aPpPWBS8qA95D+aX/cyrc8H23m7Qjt/w==" workbookSaltValue="Hyd56neZvcCAv8c3uYH/bg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{2044B0E1-9A96-1E45-A61A-217065505F5A}"/>
   </bookViews>
@@ -3760,7 +3761,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JnojtY637ugfrFOoFhMhwR5z1nyXSnxCbP/X0QTGLj3zimfVAVlNH1FayhkIV+HdSQ45WrCHFfk2dYmLZfe4MA==" saltValue="lvYTbSIGzCvy+98EpawL9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="B2:U2"/>

--- a/CertiBase/CertiBase/Banco de Dados.xlsx
+++ b/CertiBase/CertiBase/Banco de Dados.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\OneDrive\Área de Trabalho\UFSC\Laboratório\Software\CertiBase\CertiBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF7F77-4C05-4745-9BFC-C689C631295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LoPF+SSMZKQcsl4qkoeRnrCg2tC0B0K0BcxlImqLdQGO3sU6mjPOv3aPpPWBS8qA95D+aX/cyrc8H23m7Qjt/w==" workbookSaltValue="Hyd56neZvcCAv8c3uYH/bg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999C16E-2D6C-467B-90FE-A51D4917C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{2044B0E1-9A96-1E45-A61A-217065505F5A}"/>
   </bookViews>
@@ -1110,7 +1109,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -3761,7 +3760,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JnojtY637ugfrFOoFhMhwR5z1nyXSnxCbP/X0QTGLj3zimfVAVlNH1FayhkIV+HdSQ45WrCHFfk2dYmLZfe4MA==" saltValue="lvYTbSIGzCvy+98EpawL9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="djas7CCFLi0xbG7aYdgurNKpu3x9EGLsnIehE5sVtFymJsD0uyeRxRwEfJytmErm9Lri3laoFdquYUGYJnyDZQ==" saltValue="YLztzOaTbfRRl7Z58UlRcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="B2:U2"/>
